--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,28 +422,720 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Саша</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Рома</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SE 128 (2022) Midnight</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14 128 Midnight</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11 128 White</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14 128 Midnight</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>61800</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12 64 Green</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13 128 Starlight</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>61900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13 128 Midnight</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14 128 Red</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13 128 Blue</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14 128 Purple</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>🇬🇧</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13 256 Blue</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14 128 Purple</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>61500</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>🇬🇧</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13 256 Midnight</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14 128 Blue</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>🇬🇧</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13 256 Starlight</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14 256 Midnight</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>74000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14 128 Purple</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14 256 Starlight</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>73500</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14 128 Blue</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14 256 Purple</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>74000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14 128 Midnight</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14 256 Blue</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>72500</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14 128 Red</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14 256 Blue</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14 256 Midnight</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14 256 Starlight</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14 256 Purple</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Red</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Midnight</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Gold</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Purple</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Black</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>95500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Silver</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Black</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>🇸🇬</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Purple</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Silver</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Gold</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Silver</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Purple</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>94000</v>
       </c>
     </row>
   </sheetData>

--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -457,10 +457,8 @@
           <t>14 128 Midnight</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>59000</t>
-        </is>
+      <c r="F2" t="n">
+        <v>59000</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +485,8 @@
           <t>14 128 Midnight</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>61800</t>
-        </is>
+      <c r="F3" t="n">
+        <v>61800</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +513,8 @@
           <t>14 128 Starlight</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>59000</t>
-        </is>
+      <c r="F4" t="n">
+        <v>59000</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +541,8 @@
           <t>14 128 Starlight</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>61900</t>
-        </is>
+      <c r="F5" t="n">
+        <v>61900</v>
       </c>
     </row>
     <row r="6">
@@ -577,10 +569,8 @@
           <t>14 128 Red</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>59000</t>
-        </is>
+      <c r="F6" t="n">
+        <v>59000</v>
       </c>
     </row>
     <row r="7">
@@ -607,10 +597,8 @@
           <t>14 128 Purple</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>59000</t>
-        </is>
+      <c r="F7" t="n">
+        <v>59000</v>
       </c>
     </row>
     <row r="8">
@@ -637,10 +625,8 @@
           <t>14 128 Purple</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>61500</t>
-        </is>
+      <c r="F8" t="n">
+        <v>61500</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +653,8 @@
           <t>14 128 Blue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>59000</t>
-        </is>
+      <c r="F9" t="n">
+        <v>59000</v>
       </c>
     </row>
     <row r="10">
@@ -697,10 +681,8 @@
           <t>14 256 Midnight</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>74000</t>
-        </is>
+      <c r="F10" t="n">
+        <v>74000</v>
       </c>
     </row>
     <row r="11">
@@ -727,10 +709,8 @@
           <t>14 256 Starlight</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>73500</t>
-        </is>
+      <c r="F11" t="n">
+        <v>73500</v>
       </c>
     </row>
     <row r="12">
@@ -757,10 +737,8 @@
           <t>14 256 Purple</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>74000</t>
-        </is>
+      <c r="F12" t="n">
+        <v>74000</v>
       </c>
     </row>
     <row r="13">
@@ -787,10 +765,8 @@
           <t>14 256 Blue</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72500</t>
-        </is>
+      <c r="F13" t="n">
+        <v>72500</v>
       </c>
     </row>
     <row r="14">
